--- a/dados/obvius_acoustic_box.xlsx
+++ b/dados/obvius_acoustic_box.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:331698272#searchVariation=MLB21392652&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=f629f8b6-5dc9-4260-b8b8-c21340765f40</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:331698272#searchVariation=MLB21392652&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=daaeb267-aa4c-4693-a6c3-44e27784b58a</t>
         </is>
       </c>
     </row>
@@ -496,17 +516,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:331698272#searchVariation=MLB25707531&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=f629f8b6-5dc9-4260-b8b8-c21340765f40</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:331698272#searchVariation=MLB25707531&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=daaeb267-aa4c-4693-a6c3-44e27784b58a</t>
         </is>
       </c>
     </row>
@@ -521,17 +547,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:331698272#searchVariation=MLB21348561&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=f629f8b6-5dc9-4260-b8b8-c21340765f40</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:331698272#searchVariation=MLB21348561&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=daaeb267-aa4c-4693-a6c3-44e27784b58a</t>
         </is>
       </c>
     </row>
@@ -546,17 +578,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:331698272#searchVariation=MLB21455208&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=f629f8b6-5dc9-4260-b8b8-c21340765f40</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:331698272#searchVariation=MLB21455208&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=daaeb267-aa4c-4693-a6c3-44e27784b58a</t>
         </is>
       </c>
     </row>
@@ -571,17 +609,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:331698272#searchVariation=MLB21320712&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=f629f8b6-5dc9-4260-b8b8-c21340765f40</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:331698272#searchVariation=MLB21320712&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=daaeb267-aa4c-4693-a6c3-44e27784b58a</t>
         </is>
       </c>
     </row>
@@ -596,17 +644,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:331698272#searchVariation=MLB23998473&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=f629f8b6-5dc9-4260-b8b8-c21340765f40</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:331698272#searchVariation=MLB23998473&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=daaeb267-aa4c-4693-a6c3-44e27784b58a</t>
         </is>
       </c>
     </row>
@@ -621,17 +675,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:331698272#searchVariation=MLB27622275&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=802a08ea-11aa-407b-a36f-b533dc13db6f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:331698272#searchVariation=MLB27622275&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=0eb22551-2880-4b4f-9358-ddea89bb2dfd</t>
         </is>
       </c>
     </row>
@@ -646,17 +706,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-k1200-preto-cordo-central-controle-longa-distancia/p/MLB35276166?pdp_filters=seller_id:331698272#searchVariation=MLB35276166&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=802a08ea-11aa-407b-a36f-b533dc13db6f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-k1200-preto-cordo-central-controle-longa-distancia/p/MLB35276166?pdp_filters=seller_id:331698272#searchVariation=MLB35276166&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=0eb22551-2880-4b4f-9358-ddea89bb2dfd</t>
         </is>
       </c>
     </row>
@@ -671,17 +737,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:331698272#searchVariation=MLB28557249&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=f899d985-c212-466a-8d66-2fcee866e4d7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:331698272#searchVariation=MLB28557249&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=7da54a6a-f826-4c76-9481-9ee94bac5203</t>
         </is>
       </c>
     </row>
@@ -696,17 +768,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064718153-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df899d985-c212-466a-8d66-2fcee866e4d7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1064718153-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7da54a6a-f826-4c76-9481-9ee94bac5203</t>
         </is>
       </c>
     </row>
@@ -721,17 +799,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064717829-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dffb58dba-2706-407d-a314-7a257e6bd099</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1064717829-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De55f11b0-6d14-49ba-9b9b-3a6b71f18f4d</t>
         </is>
       </c>
     </row>
@@ -746,17 +830,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1363431327-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dffb58dba-2706-407d-a314-7a257e6bd099</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1363431327-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De55f11b0-6d14-49ba-9b9b-3a6b71f18f4d</t>
         </is>
       </c>
     </row>
@@ -771,17 +861,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438322022-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfd272683-6863-46bb-be06-7ed722ff2cea</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4438322022-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dea6905fa-28bc-4c7d-9b0b-5b5cdcb2b77d</t>
         </is>
       </c>
     </row>
@@ -796,17 +896,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168531669-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabb0d37f-699d-4a13-bc10-afd1efadd726</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2168531669-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8ad431f-22e7-41c2-a647-5415e8baf62c</t>
         </is>
       </c>
     </row>
@@ -821,17 +927,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168484625-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabb0d37f-699d-4a13-bc10-afd1efadd726</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2168484625-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8ad431f-22e7-41c2-a647-5415e8baf62c</t>
         </is>
       </c>
     </row>
@@ -846,17 +958,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168528937-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabb0d37f-699d-4a13-bc10-afd1efadd726</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2168528937-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8ad431f-22e7-41c2-a647-5415e8baf62c</t>
         </is>
       </c>
     </row>
@@ -871,17 +989,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438324204-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabb0d37f-699d-4a13-bc10-afd1efadd726</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4438324204-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8ad431f-22e7-41c2-a647-5415e8baf62c</t>
         </is>
       </c>
     </row>
@@ -896,17 +1020,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057647339-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabb0d37f-699d-4a13-bc10-afd1efadd726</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1057647339-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8ad431f-22e7-41c2-a647-5415e8baf62c</t>
         </is>
       </c>
     </row>
@@ -921,17 +1051,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173835663-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabb0d37f-699d-4a13-bc10-afd1efadd726</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3173835663-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8ad431f-22e7-41c2-a647-5415e8baf62c</t>
         </is>
       </c>
     </row>
@@ -946,17 +1082,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2100861882-controle-longa-distncia-jfa-k1200-1200-metros-vermelho-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b74e8b3-8506-487b-a553-240a02d9dac9</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2100861882-controle-longa-distncia-jfa-k1200-1200-metros-vermelho-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De55cbafa-8d5e-47e7-b3d9-e293eea74b7b</t>
         </is>
       </c>
     </row>
@@ -971,17 +1113,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2100921907-controle-longa-distncia-jfa-k1200-1200-metros-azul-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b74e8b3-8506-487b-a553-240a02d9dac9</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2100921907-controle-longa-distncia-jfa-k1200-1200-metros-azul-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De55cbafa-8d5e-47e7-b3d9-e293eea74b7b</t>
         </is>
       </c>
     </row>
@@ -996,17 +1144,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165401956-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd36188ab-cad1-456d-acba-a36e569a25b5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1165401956-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66d70690-2849-4573-9e38-40ad305df974</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1175,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2158425171-filtro-anti-ruido-jfa-eletrnicos-rca-alta-definico-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd36188ab-cad1-456d-acba-a36e569a25b5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2158425171-filtro-anti-ruido-jfa-eletrnicos-rca-alta-definico-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66d70690-2849-4573-9e38-40ad305df974</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1206,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1114849911-fonte-carregador-bateria-jfa-200a-bivolt-voltimetro-digital-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd36188ab-cad1-456d-acba-a36e569a25b5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1114849911-fonte-carregador-bateria-jfa-200a-bivolt-voltimetro-digital-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66d70690-2849-4573-9e38-40ad305df974</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1237,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057681370-fonte-automotiva-jfa-120a-slim-bivolt-voltimetro-digital-som-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f23361e-5213-4150-a828-2ea2ebf39d29</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1057681370-fonte-automotiva-jfa-120a-slim-bivolt-voltimetro-digital-som-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66d70690-2849-4573-9e38-40ad305df974</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1268,23 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1128622964-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f23361e-5213-4150-a828-2ea2ebf39d29</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1128622964-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66d70690-2849-4573-9e38-40ad305df974</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1299,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1128625837-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f23361e-5213-4150-a828-2ea2ebf39d29</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1128625837-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66d70690-2849-4573-9e38-40ad305df974</t>
         </is>
       </c>
     </row>
@@ -1146,17 +1330,23 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165421855-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f23361e-5213-4150-a828-2ea2ebf39d29</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1165421855-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df07b5941-78c2-40ee-8b3d-382c8ec60e90</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1361,23 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173851514-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f23361e-5213-4150-a828-2ea2ebf39d29</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3173851514-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df07b5941-78c2-40ee-8b3d-382c8ec60e90</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1392,23 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168447918-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ddf90eb-604e-4571-a4f4-b78f509458aa</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2168447918-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df07b5941-78c2-40ee-8b3d-382c8ec60e90</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1423,23 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168528944-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ddf90eb-604e-4571-a4f4-b78f509458aa</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2168528944-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df07b5941-78c2-40ee-8b3d-382c8ec60e90</t>
         </is>
       </c>
     </row>
@@ -1246,17 +1454,23 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168566914-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ddf90eb-604e-4571-a4f4-b78f509458aa</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2168566914-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df07b5941-78c2-40ee-8b3d-382c8ec60e90</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1485,23 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2733308219-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ddf90eb-604e-4571-a4f4-b78f509458aa</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2733308219-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df07b5941-78c2-40ee-8b3d-382c8ec60e90</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1516,23 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3644519247-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ddf90eb-604e-4571-a4f4-b78f509458aa</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3644519247-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd84d9c18-ec15-4f96-8f45-b958cfc66356</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1547,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438273144-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ddf90eb-604e-4571-a4f4-b78f509458aa</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4438273144-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd84d9c18-ec15-4f96-8f45-b958cfc66356</t>
         </is>
       </c>
     </row>
@@ -1346,17 +1582,23 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165411255-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6fc65d88-3922-4ad4-acf6-3cfc8901f488</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1165411255-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f381be8-3eb9-4312-b313-b35e4ae72688</t>
         </is>
       </c>
     </row>
@@ -1371,17 +1613,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057679352-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D73e5406e-72d1-462d-8c35-4763e01dfd0b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1057679352-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1a7fc35d-0360-44db-a767-140b7e25ca24</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1648,23 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1934577466-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D73e5406e-72d1-462d-8c35-4763e01dfd0b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1934577466-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1a7fc35d-0360-44db-a767-140b7e25ca24</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1679,23 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064724681-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8cf196e1-f0f0-4fea-8829-3eaf478d4efe</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1064724681-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1a7fc35d-0360-44db-a767-140b7e25ca24</t>
         </is>
       </c>
     </row>
@@ -1446,17 +1710,23 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188300004-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8cf196e1-f0f0-4fea-8829-3eaf478d4efe</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1188300004-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd907afe6-abe6-4210-b949-ff4937cc6be4</t>
         </is>
       </c>
     </row>
@@ -1471,17 +1741,23 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165400879-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8cf196e1-f0f0-4fea-8829-3eaf478d4efe</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1165400879-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd907afe6-abe6-4210-b949-ff4937cc6be4</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1772,23 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057619899-fonte-automotiva-jfa-60a-slim-bivolt-voltimetro-digital-som-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8cf196e1-f0f0-4fea-8829-3eaf478d4efe</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1057619899-fonte-automotiva-jfa-60a-slim-bivolt-voltimetro-digital-som-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd907afe6-abe6-4210-b949-ff4937cc6be4</t>
         </is>
       </c>
     </row>
@@ -1521,17 +1803,23 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165407740-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8cf196e1-f0f0-4fea-8829-3eaf478d4efe</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1165407740-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd907afe6-abe6-4210-b949-ff4937cc6be4</t>
         </is>
       </c>
     </row>
@@ -1546,17 +1834,23 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188302615-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8cf196e1-f0f0-4fea-8829-3eaf478d4efe</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1188302615-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd907afe6-abe6-4210-b949-ff4937cc6be4</t>
         </is>
       </c>
     </row>
@@ -1571,17 +1865,23 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1363426956-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8cf196e1-f0f0-4fea-8829-3eaf478d4efe</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1363426956-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd907afe6-abe6-4210-b949-ff4937cc6be4</t>
         </is>
       </c>
     </row>
@@ -1596,17 +1896,23 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064720687-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8cf196e1-f0f0-4fea-8829-3eaf478d4efe</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1064720687-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd907afe6-abe6-4210-b949-ff4937cc6be4</t>
         </is>
       </c>
     </row>
@@ -1621,17 +1927,23 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165419289-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D97bf4075-10e2-4b2c-b56c-334f893e8d54</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1165419289-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df2e06fd1-0bc6-43ca-843b-ba2af809343c</t>
         </is>
       </c>
     </row>
@@ -1646,17 +1958,23 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188317374-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D97bf4075-10e2-4b2c-b56c-334f893e8d54</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1188317374-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df2e06fd1-0bc6-43ca-843b-ba2af809343c</t>
         </is>
       </c>
     </row>
@@ -1671,17 +1989,23 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188343903-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D97bf4075-10e2-4b2c-b56c-334f893e8d54</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1188343903-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df2e06fd1-0bc6-43ca-843b-ba2af809343c</t>
         </is>
       </c>
     </row>

--- a/dados/obvius_acoustic_box.xlsx
+++ b/dados/obvius_acoustic_box.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,14 +476,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:331698272#searchVariation=MLB21392652&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=daaeb267-aa4c-4693-a6c3-44e27784b58a</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:331698272#searchVariation=MLB21392652&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=c7c1534d-b942-40a6-af40-5fd211c32f7e</t>
         </is>
       </c>
     </row>
@@ -511,13 +511,13 @@
           <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>37</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:331698272#searchVariation=MLB25707531&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=daaeb267-aa4c-4693-a6c3-44e27784b58a</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:331698272#searchVariation=MLB25707531&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=c7c1534d-b942-40a6-af40-5fd211c32f7e</t>
         </is>
       </c>
     </row>
@@ -542,15 +542,19 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>989</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -563,7 +567,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:331698272#searchVariation=MLB21348561&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=daaeb267-aa4c-4693-a6c3-44e27784b58a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:331698272#searchVariation=MLB21348561&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=c7c1534d-b942-40a6-af40-5fd211c32f7e</t>
         </is>
       </c>
     </row>
@@ -573,15 +577,19 @@
           <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>619</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>NA</t>
@@ -594,7 +602,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:331698272#searchVariation=MLB21455208&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=daaeb267-aa4c-4693-a6c3-44e27784b58a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:331698272#searchVariation=MLB21455208&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=c7c1534d-b942-40a6-af40-5fd211c32f7e</t>
         </is>
       </c>
     </row>
@@ -604,14 +612,14 @@
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>498.19</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -629,7 +637,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:331698272#searchVariation=MLB21320712&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=daaeb267-aa4c-4693-a6c3-44e27784b58a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:331698272#searchVariation=MLB21320712&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=c7c1534d-b942-40a6-af40-5fd211c32f7e</t>
         </is>
       </c>
     </row>
@@ -639,15 +647,19 @@
           <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>736</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -660,23 +672,23 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:331698272#searchVariation=MLB23998473&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=daaeb267-aa4c-4693-a6c3-44e27784b58a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:331698272#searchVariation=MLB23998473&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=c7c1534d-b942-40a6-af40-5fd211c32f7e</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm Modelo Com 70 Amperes Para Carro</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>619</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Jfa K1200 Preto Cordão + Central + Controle Longa Distancia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>115</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -686,30 +698,34 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:331698272#searchVariation=MLB27622275&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=0eb22551-2880-4b4f-9358-ddea89bb2dfd</t>
+          <t>https://www.mercadolivre.com.br/jfa-k1200-preto-cordo-central-controle-longa-distancia/p/MLB35276166?pdp_filters=seller_id:331698272#searchVariation=MLB35276166&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=e403017d-ccab-4470-a56d-ac027c67fa9d</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jfa K1200 Preto Cordão + Central + Controle Longa Distancia</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>115</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>Fonte Jfa Storm Modelo Com 70 Amperes Para Carro</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>619</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>NA</t>
@@ -717,12 +733,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-k1200-preto-cordo-central-controle-longa-distancia/p/MLB35276166?pdp_filters=seller_id:331698272#searchVariation=MLB35276166&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=0eb22551-2880-4b4f-9358-ddea89bb2dfd</t>
+          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:331698272#searchVariation=MLB27622275&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=e403017d-ccab-4470-a56d-ac027c67fa9d</t>
         </is>
       </c>
     </row>
@@ -732,13 +748,13 @@
           <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>114</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -753,7 +769,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:331698272#searchVariation=MLB28557249&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=7da54a6a-f826-4c76-9481-9ee94bac5203</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:331698272#searchVariation=MLB28557249&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=3f76c83d-59a0-4462-8d37-6c06d9241858</t>
         </is>
       </c>
     </row>
@@ -763,13 +779,13 @@
           <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>37</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -784,7 +800,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064718153-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7da54a6a-f826-4c76-9481-9ee94bac5203</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1064718153-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3f76c83d-59a0-4462-8d37-6c06d9241858</t>
         </is>
       </c>
     </row>
@@ -794,13 +810,13 @@
           <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>44</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
@@ -815,7 +831,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064717829-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De55f11b0-6d14-49ba-9b9b-3a6b71f18f4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1064717829-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D675a75d9-9ca6-4708-aad4-c0583195a9e0</t>
         </is>
       </c>
     </row>
@@ -825,13 +841,13 @@
           <t>Controle Distancia Jfa Red Line Pioneer Multimidia Original</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>119</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -846,7 +862,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1363431327-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De55f11b0-6d14-49ba-9b9b-3a6b71f18f4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1363431327-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D675a75d9-9ca6-4708-aad4-c0583195a9e0</t>
         </is>
       </c>
     </row>
@@ -856,14 +872,14 @@
           <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>457.29</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -881,7 +897,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438322022-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dea6905fa-28bc-4c7d-9b0b-5b5cdcb2b77d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438322022-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcfa2ce32-7d7d-4f63-9bad-278ede1f6ca1</t>
         </is>
       </c>
     </row>
@@ -891,13 +907,13 @@
           <t>Kit Modulo Stetsom Ex3000 2ohms +controle Jfa K1200 Vermelho</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>995</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -912,7 +928,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168531669-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8ad431f-22e7-41c2-a647-5415e8baf62c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168531669-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcfa2ce32-7d7d-4f63-9bad-278ede1f6ca1</t>
         </is>
       </c>
     </row>
@@ -922,13 +938,13 @@
           <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Azul</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>995</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -943,7 +959,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168484625-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8ad431f-22e7-41c2-a647-5415e8baf62c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168484625-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45b1b21a-de89-455b-b113-4497173053d8</t>
         </is>
       </c>
     </row>
@@ -953,13 +969,13 @@
           <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>995</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -974,7 +990,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168528937-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8ad431f-22e7-41c2-a647-5415e8baf62c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168528937-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45b1b21a-de89-455b-b113-4497173053d8</t>
         </is>
       </c>
     </row>
@@ -984,15 +1000,19 @@
           <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>814.42</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1005,7 +1025,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438324204-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8ad431f-22e7-41c2-a647-5415e8baf62c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438324204-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45b1b21a-de89-455b-b113-4497173053d8</t>
         </is>
       </c>
     </row>
@@ -1015,15 +1035,19 @@
           <t>Fonte Automotiva Jfa 70a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>619</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1036,7 +1060,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057647339-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8ad431f-22e7-41c2-a647-5415e8baf62c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057647339-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45b1b21a-de89-455b-b113-4497173053d8</t>
         </is>
       </c>
     </row>
@@ -1046,15 +1070,19 @@
           <t>Carregador Bateria Fonte Automotivo 120a Jfa Storm Bob 120</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>619</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1067,7 +1095,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173835663-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8ad431f-22e7-41c2-a647-5415e8baf62c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3173835663-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45b1b21a-de89-455b-b113-4497173053d8</t>
         </is>
       </c>
     </row>
@@ -1077,13 +1105,13 @@
           <t xml:space="preserve"> Controle Longa Distância Jfa K1200 1200 Metros Vermelho</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>115</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
@@ -1098,7 +1126,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2100861882-controle-longa-distncia-jfa-k1200-1200-metros-vermelho-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De55cbafa-8d5e-47e7-b3d9-e293eea74b7b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2100861882-controle-longa-distncia-jfa-k1200-1200-metros-vermelho-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De5a1a1f9-8b6c-4af9-9542-a9426d275402</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1136,13 @@
           <t>Controle Longa Distância Jfa K1200 1200 Metros Azul</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>115</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -1129,7 +1157,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2100921907-controle-longa-distncia-jfa-k1200-1200-metros-azul-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De55cbafa-8d5e-47e7-b3d9-e293eea74b7b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2100921907-controle-longa-distncia-jfa-k1200-1200-metros-azul-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De5a1a1f9-8b6c-4af9-9542-a9426d275402</t>
         </is>
       </c>
     </row>
@@ -1139,15 +1167,19 @@
           <t>Fonte Carregador Bateria 70a Bivolt Jfa Toca Ate 3500 Rms</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>619</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1160,7 +1192,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165401956-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66d70690-2849-4573-9e38-40ad305df974</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165401956-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D236741f2-3208-47ef-8a87-ebba115405ff</t>
         </is>
       </c>
     </row>
@@ -1170,13 +1202,13 @@
           <t>Filtro Anti Ruido Jfa Eletrônicos Rca Alta Definição</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>99</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
@@ -1191,7 +1223,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2158425171-filtro-anti-ruido-jfa-eletrnicos-rca-alta-definico-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66d70690-2849-4573-9e38-40ad305df974</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2158425171-filtro-anti-ruido-jfa-eletrnicos-rca-alta-definico-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D236741f2-3208-47ef-8a87-ebba115405ff</t>
         </is>
       </c>
     </row>
@@ -1201,15 +1233,19 @@
           <t>Fonte Carregador Bateria Jfa 200a Bivolt Voltímetro Digital</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>989</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1222,7 +1258,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1114849911-fonte-carregador-bateria-jfa-200a-bivolt-voltimetro-digital-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66d70690-2849-4573-9e38-40ad305df974</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1114849911-fonte-carregador-bateria-jfa-200a-bivolt-voltimetro-digital-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D236741f2-3208-47ef-8a87-ebba115405ff</t>
         </is>
       </c>
     </row>
@@ -1232,15 +1268,19 @@
           <t>Fonte Automotiva Jfa 120a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>819</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1253,7 +1293,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057681370-fonte-automotiva-jfa-120a-slim-bivolt-voltimetro-digital-som-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66d70690-2849-4573-9e38-40ad305df974</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057681370-fonte-automotiva-jfa-120a-slim-bivolt-voltimetro-digital-som-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D236741f2-3208-47ef-8a87-ebba115405ff</t>
         </is>
       </c>
     </row>
@@ -1263,13 +1303,13 @@
           <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>78</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
@@ -1284,7 +1324,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1128622964-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66d70690-2849-4573-9e38-40ad305df974</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1128622964-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D370b3ab7-122d-4aff-8530-6d6115b76176</t>
         </is>
       </c>
     </row>
@@ -1294,13 +1334,13 @@
           <t>Jfa K600 Controle Longa Distancia Completo + Barato Brasil</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>78</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
@@ -1315,7 +1355,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1128625837-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66d70690-2849-4573-9e38-40ad305df974</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1128625837-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D370b3ab7-122d-4aff-8530-6d6115b76176</t>
         </is>
       </c>
     </row>
@@ -1325,15 +1365,19 @@
           <t>Fonte Carregador Bateria 70a Bivolt Jfa Toca Ate 3500 Rms</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>619</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1346,23 +1390,23 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165421855-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df07b5941-78c2-40ee-8b3d-382c8ec60e90</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165421855-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D370b3ab7-122d-4aff-8530-6d6115b76176</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Preto C/ Verde Longa Distancia Universal</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>99</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>930</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
@@ -1372,28 +1416,28 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173851514-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df07b5941-78c2-40ee-8b3d-382c8ec60e90</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168447918-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D370b3ab7-122d-4aff-8530-6d6115b76176</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Azul</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>930</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Controle Jfa K1200 Preto C/ Verde Longa Distancia Universal</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>99</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
@@ -1403,12 +1447,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168447918-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df07b5941-78c2-40ee-8b3d-382c8ec60e90</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3173851514-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D370b3ab7-122d-4aff-8530-6d6115b76176</t>
         </is>
       </c>
     </row>
@@ -1418,13 +1462,13 @@
           <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>925</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
@@ -1439,7 +1483,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168528944-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df07b5941-78c2-40ee-8b3d-382c8ec60e90</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168528944-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D370b3ab7-122d-4aff-8530-6d6115b76176</t>
         </is>
       </c>
     </row>
@@ -1449,13 +1493,13 @@
           <t>Kit Modulo Stetsom Ex3000 2ohms +controle Jfa K1200 Vermelho</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>925</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
@@ -1470,7 +1514,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168566914-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df07b5941-78c2-40ee-8b3d-382c8ec60e90</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168566914-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D370b3ab7-122d-4aff-8530-6d6115b76176</t>
         </is>
       </c>
     </row>
@@ -1480,15 +1524,19 @@
           <t>Fonte Automotiva Carregador De Bateria Jfa Caixa Bob 200a</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>859</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1501,7 +1549,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2733308219-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df07b5941-78c2-40ee-8b3d-382c8ec60e90</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2733308219-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D370b3ab7-122d-4aff-8530-6d6115b76176</t>
         </is>
       </c>
     </row>
@@ -1511,15 +1559,19 @@
           <t>Fonte Carregador Bateria Jfa 60a Storm Lite  3000w  Medidor</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>438.9</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1532,7 +1584,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3644519247-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd84d9c18-ec15-4f96-8f45-b958cfc66356</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3644519247-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D075d97b6-ec6e-40b7-b300-2eb8d85b056e</t>
         </is>
       </c>
     </row>
@@ -1542,14 +1594,14 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático  Preto</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>466.39</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1567,7 +1619,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438273144-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd84d9c18-ec15-4f96-8f45-b958cfc66356</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438273144-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D075d97b6-ec6e-40b7-b300-2eb8d85b056e</t>
         </is>
       </c>
     </row>
@@ -1577,15 +1629,19 @@
           <t>Fonte Carregador Bateria Jfa 120a Bivolt Até 6000 W Rms Som</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
         <v>819</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1598,7 +1654,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165411255-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f381be8-3eb9-4312-b313-b35e4ae72688</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165411255-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D817153ab-4d62-49db-8d23-05686a8388e1</t>
         </is>
       </c>
     </row>
@@ -1608,14 +1664,14 @@
           <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>890.37</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1633,7 +1689,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057679352-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1a7fc35d-0360-44db-a767-140b7e25ca24</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057679352-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfa3cb91e-2e2f-4d27-9b14-01404b91c5d9</t>
         </is>
       </c>
     </row>
@@ -1643,13 +1699,13 @@
           <t>Sequenciador Voltimetro Medidor Bateria Digital Jfa Vs5 Hi</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>74</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
@@ -1664,7 +1720,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1934577466-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1a7fc35d-0360-44db-a767-140b7e25ca24</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1934577466-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfa3cb91e-2e2f-4d27-9b14-01404b91c5d9</t>
         </is>
       </c>
     </row>
@@ -1674,13 +1730,13 @@
           <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>37</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
@@ -1695,7 +1751,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064724681-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1a7fc35d-0360-44db-a767-140b7e25ca24</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1064724681-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfa3cb91e-2e2f-4d27-9b14-01404b91c5d9</t>
         </is>
       </c>
     </row>
@@ -1705,13 +1761,13 @@
           <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
         <v>44</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
@@ -1726,7 +1782,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188300004-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd907afe6-abe6-4210-b949-ff4937cc6be4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1188300004-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25abb024-9428-42a4-8637-43d7bc6c8189</t>
         </is>
       </c>
     </row>
@@ -1736,15 +1792,19 @@
           <t>Fonte Carregador Bateria Jfa 120a Bivolt Até 6000 W Rms Som</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
         <v>819</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1757,7 +1817,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165400879-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd907afe6-abe6-4210-b949-ff4937cc6be4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165400879-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25abb024-9428-42a4-8637-43d7bc6c8189</t>
         </is>
       </c>
     </row>
@@ -1767,15 +1827,19 @@
           <t>Fonte Automotiva Jfa 60a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
         <v>498.19</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1788,7 +1852,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057619899-fonte-automotiva-jfa-60a-slim-bivolt-voltimetro-digital-som-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd907afe6-abe6-4210-b949-ff4937cc6be4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057619899-fonte-automotiva-jfa-60a-slim-bivolt-voltimetro-digital-som-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25abb024-9428-42a4-8637-43d7bc6c8189</t>
         </is>
       </c>
     </row>
@@ -1798,13 +1862,13 @@
           <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
         <v>78</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
@@ -1819,7 +1883,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165407740-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd907afe6-abe6-4210-b949-ff4937cc6be4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165407740-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25abb024-9428-42a4-8637-43d7bc6c8189</t>
         </is>
       </c>
     </row>
@@ -1829,13 +1893,13 @@
           <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
         <v>42</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
@@ -1850,7 +1914,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188302615-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd907afe6-abe6-4210-b949-ff4937cc6be4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1188302615-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25abb024-9428-42a4-8637-43d7bc6c8189</t>
         </is>
       </c>
     </row>
@@ -1860,13 +1924,13 @@
           <t>Controle Distancia Jfa Red Line Pioneer Multimidia Original</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>114</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
@@ -1881,7 +1945,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1363426956-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd907afe6-abe6-4210-b949-ff4937cc6be4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1363426956-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25abb024-9428-42a4-8637-43d7bc6c8189</t>
         </is>
       </c>
     </row>
@@ -1891,13 +1955,13 @@
           <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
         <v>42</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
@@ -1912,7 +1976,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064720687-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd907afe6-abe6-4210-b949-ff4937cc6be4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1064720687-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25abb024-9428-42a4-8637-43d7bc6c8189</t>
         </is>
       </c>
     </row>
@@ -1922,13 +1986,13 @@
           <t>Jfa K600 Controle Longa Distancia Completo + Barato Brasil</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
         <v>78</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
@@ -1943,7 +2007,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165419289-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df2e06fd1-0bc6-43ca-843b-ba2af809343c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165419289-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5b3826e1-db9b-4f50-acf0-5f875d2fc101</t>
         </is>
       </c>
     </row>
@@ -1953,13 +2017,13 @@
           <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
         <v>42</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
@@ -1974,7 +2038,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188317374-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df2e06fd1-0bc6-43ca-843b-ba2af809343c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1188317374-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5b3826e1-db9b-4f50-acf0-5f875d2fc101</t>
         </is>
       </c>
     </row>
@@ -1984,13 +2048,13 @@
           <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
         <v>78</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
@@ -2005,7 +2069,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188343903-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df2e06fd1-0bc6-43ca-843b-ba2af809343c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1188343903-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5b3826e1-db9b-4f50-acf0-5f875d2fc101</t>
         </is>
       </c>
     </row>

--- a/dados/obvius_acoustic_box.xlsx
+++ b/dados/obvius_acoustic_box.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:331698272#searchVariation=MLB21392652&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=c7c1534d-b942-40a6-af40-5fd211c32f7e</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:331698272#searchVariation=MLB21392652&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=37b60b76-4141-42eb-b56d-fe7f28b051c5</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:331698272#searchVariation=MLB25707531&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=c7c1534d-b942-40a6-af40-5fd211c32f7e</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:331698272#searchVariation=MLB25707531&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=37b60b76-4141-42eb-b56d-fe7f28b051c5</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:331698272#searchVariation=MLB21348561&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=c7c1534d-b942-40a6-af40-5fd211c32f7e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:331698272#searchVariation=MLB21348561&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=37b60b76-4141-42eb-b56d-fe7f28b051c5</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:331698272#searchVariation=MLB21455208&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=c7c1534d-b942-40a6-af40-5fd211c32f7e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:331698272#searchVariation=MLB21455208&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=37b60b76-4141-42eb-b56d-fe7f28b051c5</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:331698272#searchVariation=MLB21320712&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=c7c1534d-b942-40a6-af40-5fd211c32f7e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:331698272#searchVariation=MLB21320712&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=37b60b76-4141-42eb-b56d-fe7f28b051c5</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:331698272#searchVariation=MLB23998473&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=c7c1534d-b942-40a6-af40-5fd211c32f7e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:331698272#searchVariation=MLB23998473&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=37b60b76-4141-42eb-b56d-fe7f28b051c5</t>
         </is>
       </c>
     </row>
@@ -684,13 +684,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>115</v>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>NA</t>
@@ -703,7 +707,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-k1200-preto-cordo-central-controle-longa-distancia/p/MLB35276166?pdp_filters=seller_id:331698272#searchVariation=MLB35276166&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=e403017d-ccab-4470-a56d-ac027c67fa9d</t>
+          <t>https://www.mercadolivre.com.br/jfa-k1200-preto-cordo-central-controle-longa-distancia/p/MLB35276166?pdp_filters=seller_id:331698272#searchVariation=MLB35276166&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=9e1a9346-b19f-4d8a-94ba-d6695e509da3</t>
         </is>
       </c>
     </row>
@@ -738,7 +742,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:331698272#searchVariation=MLB27622275&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=e403017d-ccab-4470-a56d-ac027c67fa9d</t>
+          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:331698272#searchVariation=MLB27622275&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=9e1a9346-b19f-4d8a-94ba-d6695e509da3</t>
         </is>
       </c>
     </row>
@@ -750,13 +754,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>114</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>112.86</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>NA</t>
@@ -769,7 +777,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:331698272#searchVariation=MLB28557249&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=3f76c83d-59a0-4462-8d37-6c06d9241858</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:331698272#searchVariation=MLB28557249&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=ad1c07dc-bff1-4a3b-90a0-d5d4247c6aa6</t>
         </is>
       </c>
     </row>
@@ -800,7 +808,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064718153-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3f76c83d-59a0-4462-8d37-6c06d9241858</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1064718153-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad1c07dc-bff1-4a3b-90a0-d5d4247c6aa6</t>
         </is>
       </c>
     </row>
@@ -831,7 +839,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064717829-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D675a75d9-9ca6-4708-aad4-c0583195a9e0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1064717829-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44e43d52-0834-413b-b2db-27146e0643c6</t>
         </is>
       </c>
     </row>
@@ -847,7 +855,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>119</v>
+        <v>117.81</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -862,23 +870,23 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1363431327-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D675a75d9-9ca6-4708-aad4-c0583195a9e0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1363431327-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D730d27a6-d456-4dbd-a619-7651dfe194eb</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Kit Modulo Stetsom Ex3000 2ohms +controle Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>457.29</v>
+        <v>995</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -897,25 +905,29 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438322022-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcfa2ce32-7d7d-4f63-9bad-278ede1f6ca1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168531669-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D730d27a6-d456-4dbd-a619-7651dfe194eb</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex3000 2ohms +controle Jfa K1200 Vermelho</t>
+          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>995</v>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -928,25 +940,29 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168531669-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcfa2ce32-7d7d-4f63-9bad-278ede1f6ca1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168484625-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D730d27a6-d456-4dbd-a619-7651dfe194eb</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Azul</t>
+          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>995</v>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -959,25 +975,29 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168484625-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45b1b21a-de89-455b-b113-4497173053d8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168528937-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D730d27a6-d456-4dbd-a619-7651dfe194eb</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Preto</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>995</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>457.29</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>NA</t>
@@ -990,7 +1010,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168528937-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45b1b21a-de89-455b-b113-4497173053d8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438322022-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D730d27a6-d456-4dbd-a619-7651dfe194eb</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1045,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438324204-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45b1b21a-de89-455b-b113-4497173053d8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438324204-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daaafc0dd-bddd-4d0c-8c64-635b58af9f6b</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1080,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057647339-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45b1b21a-de89-455b-b113-4497173053d8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057647339-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daaafc0dd-bddd-4d0c-8c64-635b58af9f6b</t>
         </is>
       </c>
     </row>
@@ -1095,25 +1115,29 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173835663-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45b1b21a-de89-455b-b113-4497173053d8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3173835663-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daaafc0dd-bddd-4d0c-8c64-635b58af9f6b</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Controle Longa Distância Jfa K1200 1200 Metros Vermelho</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático  Preto</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>115</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>466.39</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1126,25 +1150,29 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2100861882-controle-longa-distncia-jfa-k1200-1200-metros-vermelho-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De5a1a1f9-8b6c-4af9-9542-a9426d275402</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438273144-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daaafc0dd-bddd-4d0c-8c64-635b58af9f6b</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 1200 Metros Azul</t>
+          <t>Fonte Carregador Bateria Jfa 60a Storm Lite  3000w  Medidor</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>115</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>438.9</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1157,23 +1185,23 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2100921907-controle-longa-distncia-jfa-k1200-1200-metros-azul-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De5a1a1f9-8b6c-4af9-9542-a9426d275402</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3644519247-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daaafc0dd-bddd-4d0c-8c64-635b58af9f6b</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria 70a Bivolt Jfa Toca Ate 3500 Rms</t>
+          <t xml:space="preserve"> Controle Longa Distância Jfa K1200 1200 Metros Vermelho</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>619</v>
+        <v>115</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1187,30 +1215,34 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165401956-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D236741f2-3208-47ef-8a87-ebba115405ff</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2100861882-controle-longa-distncia-jfa-k1200-1200-metros-vermelho-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db2ba4412-c550-4864-9ded-f9eb20dd7b99</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruido Jfa Eletrônicos Rca Alta Definição</t>
+          <t>Controle Longa Distância Jfa K1200 1200 Metros Azul</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>99</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1223,23 +1255,23 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2158425171-filtro-anti-ruido-jfa-eletrnicos-rca-alta-definico-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D236741f2-3208-47ef-8a87-ebba115405ff</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2100921907-controle-longa-distncia-jfa-k1200-1200-metros-azul-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db2ba4412-c550-4864-9ded-f9eb20dd7b99</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 200a Bivolt Voltímetro Digital</t>
+          <t>Fonte Carregador Bateria 70a Bivolt Jfa Toca Ate 3500 Rms</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>989</v>
+        <v>619</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1258,23 +1290,23 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1114849911-fonte-carregador-bateria-jfa-200a-bivolt-voltimetro-digital-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D236741f2-3208-47ef-8a87-ebba115405ff</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165401956-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D894f9576-afb7-4b3f-be91-199ff713af7b</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Slim Bivolt Voltímetro Digital Som</t>
+          <t>Fonte Carregador Bateria Jfa 200a Bivolt Voltímetro Digital</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>819</v>
+        <v>989</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1293,14 +1325,14 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057681370-fonte-automotiva-jfa-120a-slim-bivolt-voltimetro-digital-som-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D236741f2-3208-47ef-8a87-ebba115405ff</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1114849911-fonte-carregador-bateria-jfa-200a-bivolt-voltimetro-digital-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D894f9576-afb7-4b3f-be91-199ff713af7b</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
+          <t>Filtro Anti Ruido Jfa Eletrônicos Rca Alta Definição</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1309,7 +1341,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
@@ -1324,25 +1356,29 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1128622964-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D370b3ab7-122d-4aff-8530-6d6115b76176</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2158425171-filtro-anti-ruido-jfa-eletrnicos-rca-alta-definico-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D894f9576-afb7-4b3f-be91-199ff713af7b</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jfa K600 Controle Longa Distancia Completo + Barato Brasil</t>
+          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>78</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>77.22</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1350,28 +1386,28 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1128625837-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D370b3ab7-122d-4aff-8530-6d6115b76176</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1128622964-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedce8f76-1f88-42d2-946f-d828b0de2538</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria 70a Bivolt Jfa Toca Ate 3500 Rms</t>
+          <t>Jfa K600 Controle Longa Distancia Completo + Barato Brasil</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>619</v>
+        <v>78</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1390,25 +1426,29 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165421855-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D370b3ab7-122d-4aff-8530-6d6115b76176</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1128625837-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedce8f76-1f88-42d2-946f-d828b0de2538</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Azul</t>
+          <t>Fonte Automotiva Jfa 120a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>930</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>819</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1421,25 +1461,29 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168447918-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D370b3ab7-122d-4aff-8530-6d6115b76176</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057681370-fonte-automotiva-jfa-120a-slim-bivolt-voltimetro-digital-som-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedce8f76-1f88-42d2-946f-d828b0de2538</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Preto C/ Verde Longa Distancia Universal</t>
+          <t>Fonte Carregador Bateria 70a Bivolt Jfa Toca Ate 3500 Rms</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>99</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1447,30 +1491,34 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173851514-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D370b3ab7-122d-4aff-8530-6d6115b76176</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165421855-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedce8f76-1f88-42d2-946f-d828b0de2538</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Preto</t>
+          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>925</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>930</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1483,25 +1531,29 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168528944-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D370b3ab7-122d-4aff-8530-6d6115b76176</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168447918-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedce8f76-1f88-42d2-946f-d828b0de2538</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex3000 2ohms +controle Jfa K1200 Vermelho</t>
+          <t>Controle Jfa K1200 Preto C/ Verde Longa Distancia Universal</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>925</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
+        <v>99</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1509,28 +1561,28 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168566914-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D370b3ab7-122d-4aff-8530-6d6115b76176</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3173851514-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedce8f76-1f88-42d2-946f-d828b0de2538</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador De Bateria Jfa Caixa Bob 200a</t>
+          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>859</v>
+        <v>925</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1544,28 +1596,28 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2733308219-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D370b3ab7-122d-4aff-8530-6d6115b76176</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168528944-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedce8f76-1f88-42d2-946f-d828b0de2538</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 60a Storm Lite  3000w  Medidor</t>
+          <t>Kit Modulo Stetsom Ex3000 2ohms +controle Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>438.9</v>
+        <v>925</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1579,28 +1631,28 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3644519247-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D075d97b6-ec6e-40b7-b300-2eb8d85b056e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168566914-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedce8f76-1f88-42d2-946f-d828b0de2538</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático  Preto</t>
+          <t>Fonte Automotiva Carregador De Bateria Jfa Caixa Bob 200a</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>466.39</v>
+        <v>859</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1619,7 +1671,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438273144-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D075d97b6-ec6e-40b7-b300-2eb8d85b056e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2733308219-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedce8f76-1f88-42d2-946f-d828b0de2538</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1706,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165411255-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D817153ab-4d62-49db-8d23-05686a8388e1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165411255-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45f4c31e-983a-4b06-9cd9-ddcd2f113669</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1741,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057679352-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfa3cb91e-2e2f-4d27-9b14-01404b91c5d9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057679352-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D699aec27-58af-4213-8dfb-809dd0659fd2</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1772,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1934577466-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfa3cb91e-2e2f-4d27-9b14-01404b91c5d9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1934577466-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D699aec27-58af-4213-8dfb-809dd0659fd2</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1788,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>37</v>
+        <v>36.63</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
@@ -1751,7 +1803,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064724681-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfa3cb91e-2e2f-4d27-9b14-01404b91c5d9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1064724681-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6edf0830-061a-4434-8fad-f577f76507ac</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1834,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188300004-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25abb024-9428-42a4-8637-43d7bc6c8189</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1188300004-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6edf0830-061a-4434-8fad-f577f76507ac</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1869,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165400879-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25abb024-9428-42a4-8637-43d7bc6c8189</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165400879-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6edf0830-061a-4434-8fad-f577f76507ac</t>
         </is>
       </c>
     </row>
@@ -1852,14 +1904,14 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057619899-fonte-automotiva-jfa-60a-slim-bivolt-voltimetro-digital-som-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25abb024-9428-42a4-8637-43d7bc6c8189</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057619899-fonte-automotiva-jfa-60a-slim-bivolt-voltimetro-digital-som-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D029ad94a-74e7-456b-9f06-13754d581372</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
+          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1868,7 +1920,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
@@ -1883,14 +1935,14 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165407740-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25abb024-9428-42a4-8637-43d7bc6c8189</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1188302615-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D029ad94a-74e7-456b-9f06-13754d581372</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
+          <t>Controle Distancia Jfa Red Line Pioneer Multimidia Original</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1899,7 +1951,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>42</v>
+        <v>112.86</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
@@ -1914,25 +1966,29 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188302615-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25abb024-9428-42a4-8637-43d7bc6c8189</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1363426956-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D029ad94a-74e7-456b-9f06-13754d581372</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Controle Distancia Jfa Red Line Pioneer Multimidia Original</t>
+          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>114</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
+        <v>78</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1945,7 +2001,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1363426956-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25abb024-9428-42a4-8637-43d7bc6c8189</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165407740-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D029ad94a-74e7-456b-9f06-13754d581372</t>
         </is>
       </c>
     </row>
@@ -1976,7 +2032,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064720687-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25abb024-9428-42a4-8637-43d7bc6c8189</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1064720687-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D029ad94a-74e7-456b-9f06-13754d581372</t>
         </is>
       </c>
     </row>
@@ -1988,13 +2044,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>78</v>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2007,7 +2067,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165419289-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5b3826e1-db9b-4f50-acf0-5f875d2fc101</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165419289-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D029ad94a-74e7-456b-9f06-13754d581372</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2098,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188317374-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5b3826e1-db9b-4f50-acf0-5f875d2fc101</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1188317374-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D029ad94a-74e7-456b-9f06-13754d581372</t>
         </is>
       </c>
     </row>
@@ -2050,13 +2110,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>78</v>
       </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2069,7 +2133,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188343903-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5b3826e1-db9b-4f50-acf0-5f875d2fc101</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1188343903-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D029ad94a-74e7-456b-9f06-13754d581372</t>
         </is>
       </c>
     </row>

--- a/dados/obvius_acoustic_box.xlsx
+++ b/dados/obvius_acoustic_box.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,1667 +483,2202 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:331698272#searchVariation=MLB21392652&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=37b60b76-4141-42eb-b56d-fe7f28b051c5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:331698272#searchVariation=MLB21392652&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=beeb3a4e-4139-4812-9478-fc98c033f809</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>37</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:331698272#searchVariation=MLB25707531&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=37b60b76-4141-42eb-b56d-fe7f28b051c5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:331698272#searchVariation=MLB25707531&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=beeb3a4e-4139-4812-9478-fc98c033f809</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>FONTE 200A STORM</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>989</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:331698272#searchVariation=MLB21348561&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=37b60b76-4141-42eb-b56d-fe7f28b051c5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:331698272#searchVariation=MLB21348561&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=beeb3a4e-4139-4812-9478-fc98c033f809</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>FONTE 70A STORM</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>619</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:331698272#searchVariation=MLB21455208&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=37b60b76-4141-42eb-b56d-fe7f28b051c5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:331698272#searchVariation=MLB21455208&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=beeb3a4e-4139-4812-9478-fc98c033f809</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>FONTE 60A STORM</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>498.19</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:331698272#searchVariation=MLB21320712&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=37b60b76-4141-42eb-b56d-fe7f28b051c5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:331698272#searchVariation=MLB21320712&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=beeb3a4e-4139-4812-9478-fc98c033f809</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>FONTE 120A LITE</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>736</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:331698272#searchVariation=MLB23998473&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=37b60b76-4141-42eb-b56d-fe7f28b051c5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:331698272#searchVariation=MLB23998473&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=93317015-f2d2-4d05-ac71-9495fb9708cd</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Jfa K1200 Preto Cordão + Central + Controle Longa Distancia</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>115</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-k1200-preto-cordo-central-controle-longa-distancia/p/MLB35276166?pdp_filters=seller_id:331698272#searchVariation=MLB35276166&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=9e1a9346-b19f-4d8a-94ba-d6695e509da3</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-k1200-preto-cordo-central-controle-longa-distancia/p/MLB35276166?pdp_filters=seller_id:331698272#searchVariation=MLB35276166&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=93317015-f2d2-4d05-ac71-9495fb9708cd</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Fonte Jfa Storm Modelo Com 70 Amperes Para Carro</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>FONTE 70A STORM</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
         <v>619</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:331698272#searchVariation=MLB27622275&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=9e1a9346-b19f-4d8a-94ba-d6695e509da3</t>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:331698272#searchVariation=MLB27622275&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=93317015-f2d2-4d05-ac71-9495fb9708cd</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>CONTROLE WR</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>112.86</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E10" t="n">
+        <v>114</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:331698272#searchVariation=MLB28557249&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=ad1c07dc-bff1-4a3b-90a0-d5d4247c6aa6</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:331698272#searchVariation=MLB28557249&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=5153125e-80c0-48a1-af83-00b40c956cd8</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>37</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064718153-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad1c07dc-bff1-4a3b-90a0-d5d4247c6aa6</t>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1064718153-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5153125e-80c0-48a1-af83-00b40c956cd8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="E12" t="n">
         <v>44</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064717829-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44e43d52-0834-413b-b2db-27146e0643c6</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1064717829-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D07dcf0c3-f757-4d65-a215-cfc1348828c1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Controle Distancia Jfa Red Line Pioneer Multimidia Original</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>117.81</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Bateria Jfa 60a Storm Lite  3000w  Medidor</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>438.9</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1363431327-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D730d27a6-d456-4dbd-a619-7651dfe194eb</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3644519247-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfadffeff-dadb-4e3f-b1b5-419711558bad</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex3000 2ohms +controle Jfa K1200 Vermelho</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>995</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>814.42</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168531669-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D730d27a6-d456-4dbd-a619-7651dfe194eb</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4438324204-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfadffeff-dadb-4e3f-b1b5-419711558bad</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>995</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 70a Slim Bivolt Voltímetro Digital Som</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>619</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168484625-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D730d27a6-d456-4dbd-a619-7651dfe194eb</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1057647339-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6793aae3-8e66-4571-a8c1-3045ec7284ee</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>995</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Bateria Jfa 120a Bivolt Até 6000 W Rms Som</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>819</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168528937-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D730d27a6-d456-4dbd-a619-7651dfe194eb</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1165411255-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6793aae3-8e66-4571-a8c1-3045ec7284ee</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>457.29</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Kit Modulo Stetsom Ex3000 2ohms +controle Jfa K1200 Vermelho</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>995</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438322022-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D730d27a6-d456-4dbd-a619-7651dfe194eb</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2168531669-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6793aae3-8e66-4571-a8c1-3045ec7284ee</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>814.42</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Azul</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>995</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438324204-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daaafc0dd-bddd-4d0c-8c64-635b58af9f6b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2168484625-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6793aae3-8e66-4571-a8c1-3045ec7284ee</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 70a Slim Bivolt Voltímetro Digital Som</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>619</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Preto</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>995</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057647339-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daaafc0dd-bddd-4d0c-8c64-635b58af9f6b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2168528937-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6793aae3-8e66-4571-a8c1-3045ec7284ee</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Carregador Bateria Fonte Automotivo 120a Jfa Storm Bob 120</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>619</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Controle Distancia Jfa Red Line Pioneer Multimidia Original</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>119</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173835663-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daaafc0dd-bddd-4d0c-8c64-635b58af9f6b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1363431327-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6793aae3-8e66-4571-a8c1-3045ec7284ee</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático  Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>466.39</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Carregador Bateria Fonte Automotivo 120a Jfa Storm Bob 120</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>619</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438273144-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daaafc0dd-bddd-4d0c-8c64-635b58af9f6b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3173835663-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D67155570-b29d-4ae9-acd3-c80e96305cd4</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 60a Storm Lite  3000w  Medidor</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>438.9</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Controle Longa Distância Jfa K1200 1200 Metros Vermelho</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>115</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3644519247-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daaafc0dd-bddd-4d0c-8c64-635b58af9f6b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2100861882-controle-longa-distncia-jfa-k1200-1200-metros-vermelho-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4d072285-2aff-4b98-8735-33801a827c71</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Controle Longa Distância Jfa K1200 1200 Metros Vermelho</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200 1200 Metros Azul</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="E23" t="n">
         <v>115</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2100861882-controle-longa-distncia-jfa-k1200-1200-metros-vermelho-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db2ba4412-c550-4864-9ded-f9eb20dd7b99</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2100921907-controle-longa-distncia-jfa-k1200-1200-metros-azul-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4d072285-2aff-4b98-8735-33801a827c71</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 1200 Metros Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>115</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Bateria Jfa 200a Bivolt Voltímetro Digital</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>989</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2100921907-controle-longa-distncia-jfa-k1200-1200-metros-azul-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db2ba4412-c550-4864-9ded-f9eb20dd7b99</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1114849911-fonte-carregador-bateria-jfa-200a-bivolt-voltimetro-digital-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4d072285-2aff-4b98-8735-33801a827c71</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria 70a Bivolt Jfa Toca Ate 3500 Rms</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>619</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Filtro Anti Ruido Jfa Eletrônicos Rca Alta Definição</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>99</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165401956-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D894f9576-afb7-4b3f-be91-199ff713af7b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2158425171-filtro-anti-ruido-jfa-eletrnicos-rca-alta-definico-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4d072285-2aff-4b98-8735-33801a827c71</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 200a Bivolt Voltímetro Digital</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>989</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 120a Slim Bivolt Voltímetro Digital Som</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>819</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1114849911-fonte-carregador-bateria-jfa-200a-bivolt-voltimetro-digital-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D894f9576-afb7-4b3f-be91-199ff713af7b</t>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1057681370-fonte-automotiva-jfa-120a-slim-bivolt-voltimetro-digital-som-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D018d89db-80e0-46cc-98dd-30c479e06e70</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruido Jfa Eletrônicos Rca Alta Definição</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>99</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>78</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2158425171-filtro-anti-ruido-jfa-eletrnicos-rca-alta-definico-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D894f9576-afb7-4b3f-be91-199ff713af7b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1128622964-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D018d89db-80e0-46cc-98dd-30c479e06e70</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Jfa K600 Controle Longa Distancia Completo + Barato Brasil</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E28" t="n">
+        <v>78</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1128622964-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedce8f76-1f88-42d2-946f-d828b0de2538</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1128625837-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D018d89db-80e0-46cc-98dd-30c479e06e70</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Jfa K600 Controle Longa Distancia Completo + Barato Brasil</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>78</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Bateria 70a Bivolt Jfa Toca Ate 3500 Rms</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>619</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1128625837-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedce8f76-1f88-42d2-946f-d828b0de2538</t>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1165421855-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D018d89db-80e0-46cc-98dd-30c479e06e70</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Slim Bivolt Voltímetro Digital Som</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>819</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Azul</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>930</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057681370-fonte-automotiva-jfa-120a-slim-bivolt-voltimetro-digital-som-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedce8f76-1f88-42d2-946f-d828b0de2538</t>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2168447918-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D018d89db-80e0-46cc-98dd-30c479e06e70</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria 70a Bivolt Jfa Toca Ate 3500 Rms</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>619</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Controle Jfa K1200 Preto C/ Verde Longa Distancia Universal</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>99</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165421855-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedce8f76-1f88-42d2-946f-d828b0de2538</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3173851514-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D018d89db-80e0-46cc-98dd-30c479e06e70</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>930</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 40a Storm Som Automotivo</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>499</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168447918-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedce8f76-1f88-42d2-946f-d828b0de2538</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2778581381-fonte-carregador-de-bateria-jfa-40a-storm-som-automotivo-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3a8d8e38-8689-4c85-bc2e-a1488794314a</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Preto C/ Verde Longa Distancia Universal</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>99</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E33" t="n">
+        <v>925</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173851514-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedce8f76-1f88-42d2-946f-d828b0de2538</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2168528944-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3a8d8e38-8689-4c85-bc2e-a1488794314a</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Kit Modulo Stetsom Ex3000 2ohms +controle Jfa K1200 Vermelho</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="E34" t="n">
         <v>925</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168528944-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedce8f76-1f88-42d2-946f-d828b0de2538</t>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2168566914-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3a8d8e38-8689-4c85-bc2e-a1488794314a</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex3000 2ohms +controle Jfa K1200 Vermelho</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>925</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Carregador De Bateria Jfa Caixa Bob 200a</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>859</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168566914-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedce8f76-1f88-42d2-946f-d828b0de2538</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2733308219-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3a8d8e38-8689-4c85-bc2e-a1488794314a</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador De Bateria Jfa Caixa Bob 200a</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>859</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 40a Storm</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>465</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2733308219-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dedce8f76-1f88-42d2-946f-d828b0de2538</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2778611516-fonte-carregador-de-bateria-jfa-40a-storm-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3a8d8e38-8689-4c85-bc2e-a1488794314a</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 120a Bivolt Até 6000 W Rms Som</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>819</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático  Preto</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>466.39</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165411255-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45f4c31e-983a-4b06-9cd9-ddcd2f113669</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4438273144-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0184aff0-6739-4283-b19a-b3966ba28274</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>890.37</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Bateria 70a Bivolt Jfa Toca Ate 3500 Rms</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>619</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057679352-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D699aec27-58af-4213-8dfb-809dd0659fd2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1165401956-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0184aff0-6739-4283-b19a-b3966ba28274</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sequenciador Voltimetro Medidor Bateria Digital Jfa Vs5 Hi</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>74</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>890.37</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1934577466-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D699aec27-58af-4213-8dfb-809dd0659fd2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1057679352-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c192ed9-59cb-4ca1-98f9-3838fb5a5bda</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Sequenciador Voltimetro Medidor Bateria Digital Jfa Vs5 Hi</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>36.63</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+      <c r="E40" t="n">
+        <v>73.26000000000001</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064724681-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6edf0830-061a-4434-8fad-f577f76507ac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1934577466-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c192ed9-59cb-4ca1-98f9-3838fb5a5bda</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>44</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+      <c r="E41" t="n">
+        <v>37</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188300004-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6edf0830-061a-4434-8fad-f577f76507ac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1064724681-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D87128842-211b-4b96-8738-329614f6e54b</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>Fonte Carregador Bateria Jfa 120a Bivolt Até 6000 W Rms Som</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="E42" t="n">
         <v>819</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165400879-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6edf0830-061a-4434-8fad-f577f76507ac</t>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1165400879-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D87128842-211b-4b96-8738-329614f6e54b</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 60a Slim Bivolt Voltímetro Digital Som</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>498.19</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Controle Distancia Jfa Red Line Pioneer Multimidia Original</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>112.86</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057619899-fonte-automotiva-jfa-60a-slim-bivolt-voltimetro-digital-som-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D029ad94a-74e7-456b-9f06-13754d581372</t>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1363426956-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D87128842-211b-4b96-8738-329614f6e54b</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>42</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 60a Slim Bivolt Voltímetro Digital Som</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>498.19</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188302615-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D029ad94a-74e7-456b-9f06-13754d581372</t>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1057619899-fonte-automotiva-jfa-60a-slim-bivolt-voltimetro-digital-som-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D87128842-211b-4b96-8738-329614f6e54b</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Controle Distancia Jfa Red Line Pioneer Multimidia Original</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>112.86</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>78</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1363426956-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D029ad94a-74e7-456b-9f06-13754d581372</t>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1165407740-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D87128842-211b-4b96-8738-329614f6e54b</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>78</v>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>44</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165407740-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D029ad94a-74e7-456b-9f06-13754d581372</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1188300004-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D87128842-211b-4b96-8738-329614f6e54b</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="E47" t="n">
         <v>42</v>
       </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064720687-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D029ad94a-74e7-456b-9f06-13754d581372</t>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1188302615-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D87128842-211b-4b96-8738-329614f6e54b</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Jfa K600 Controle Longa Distancia Completo + Barato Brasil</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="E48" t="n">
         <v>78</v>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165419289-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D029ad94a-74e7-456b-9f06-13754d581372</t>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1188343903-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D87128842-211b-4b96-8738-329614f6e54b</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="E49" t="n">
         <v>42</v>
       </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188317374-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D029ad94a-74e7-456b-9f06-13754d581372</t>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1064720687-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D87128842-211b-4b96-8738-329614f6e54b</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Jfa K600 Controle Longa Distancia Completo + Barato Brasil</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="E50" t="n">
         <v>78</v>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188343903-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D029ad94a-74e7-456b-9f06-13754d581372</t>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1165419289-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd0e9ec3a-f88b-47bd-9bd6-423151a77e0a</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>obvius_acoustic_box</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>42</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1188317374-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd0e9ec3a-f88b-47bd-9bd6-423151a77e0a</t>
         </is>
       </c>
     </row>

--- a/dados/obvius_acoustic_box.xlsx
+++ b/dados/obvius_acoustic_box.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:331698272#searchVariation=MLB21392652&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=beeb3a4e-4139-4812-9478-fc98c033f809</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:331698272#searchVariation=MLB21392652&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=043345d3-9301-47ba-a604-53684c9ec3af</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,18 +538,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>37</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>498.19</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>NA</t>
@@ -562,14 +566,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:331698272#searchVariation=MLB25707531&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=beeb3a4e-4139-4812-9478-fc98c033f809</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:331698272#searchVariation=MLB21320712&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=043345d3-9301-47ba-a604-53684c9ec3af</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -579,16 +583,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>989</v>
+        <v>619</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -607,14 +611,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:331698272#searchVariation=MLB21348561&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=beeb3a4e-4139-4812-9478-fc98c033f809</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:331698272#searchVariation=MLB21455208&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=043345d3-9301-47ba-a604-53684c9ec3af</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -624,16 +628,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>619</v>
+        <v>736</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -652,14 +656,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:331698272#searchVariation=MLB21455208&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=beeb3a4e-4139-4812-9478-fc98c033f809</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:331698272#searchVariation=MLB23998473&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=630155ef-6202-4cbe-9132-ebfbd413345f</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -669,16 +673,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>498.19</v>
+        <v>989</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -697,14 +701,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:331698272#searchVariation=MLB21320712&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=beeb3a4e-4139-4812-9478-fc98c033f809</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:331698272#searchVariation=MLB21348561&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=043345d3-9301-47ba-a604-53684c9ec3af</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -714,16 +718,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Jfa K1200 Preto Cordão + Central + Controle Longa Distancia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>736</v>
+        <v>115</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -742,14 +746,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:331698272#searchVariation=MLB23998473&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=93317015-f2d2-4d05-ac71-9495fb9708cd</t>
+          <t>https://www.mercadolivre.com.br/jfa-k1200-preto-cordo-central-controle-longa-distancia/p/MLB35276166?pdp_filters=seller_id:331698272#searchVariation=MLB35276166&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=630155ef-6202-4cbe-9132-ebfbd413345f</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,22 +763,18 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jfa K1200 Preto Cordão + Central + Controle Longa Distancia</t>
+          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>115</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>NA</t>
@@ -782,19 +782,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-k1200-preto-cordo-central-controle-longa-distancia/p/MLB35276166?pdp_filters=seller_id:331698272#searchVariation=MLB35276166&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=93317015-f2d2-4d05-ac71-9495fb9708cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1064718153-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D41627901-9b19-4990-ae20-ed79387323fc</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -804,22 +804,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm Modelo Com 70 Amperes Para Carro</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>619</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>NA</t>
@@ -827,19 +823,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:331698272#searchVariation=MLB27622275&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=93317015-f2d2-4d05-ac71-9495fb9708cd</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:331698272#searchVariation=MLB25707531&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=043345d3-9301-47ba-a604-53684c9ec3af</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -849,16 +845,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>Fonte Jfa Storm Modelo Com 70 Amperes Para Carro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>114</v>
+        <v>619</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -877,14 +873,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:331698272#searchVariation=MLB28557249&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=5153125e-80c0-48a1-af83-00b40c956cd8</t>
+          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:331698272#searchVariation=MLB27622275&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=630155ef-6202-4cbe-9132-ebfbd413345f</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -894,18 +890,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>37</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -918,14 +918,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064718153-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5153125e-80c0-48a1-af83-00b40c956cd8</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:331698272#searchVariation=MLB28557249&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=41627901-9b19-4990-ae20-ed79387323fc</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -959,14 +959,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064717829-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D07dcf0c3-f757-4d65-a215-cfc1348828c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1064717829-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd83ab271-aa36-4176-aab5-15415df80deb</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1004,14 +1004,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3644519247-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfadffeff-dadb-4e3f-b1b5-419711558bad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3644519247-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D934e9323-f1ba-4237-b5af-3db1f1441e22</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1049,14 +1049,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438324204-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfadffeff-dadb-4e3f-b1b5-419711558bad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438324204-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D934e9323-f1ba-4237-b5af-3db1f1441e22</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1094,14 +1094,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057647339-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6793aae3-8e66-4571-a8c1-3045ec7284ee</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057647339-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1238fe87-15d5-4060-ba8e-913084b45eef</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1111,16 +1111,16 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 120a Bivolt Até 6000 W Rms Som</t>
+          <t>Kit Modulo Stetsom Ex3000 2ohms +controle Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>819</v>
+        <v>995</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1139,14 +1139,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165411255-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6793aae3-8e66-4571-a8c1-3045ec7284ee</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168531669-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1238fe87-15d5-4060-ba8e-913084b45eef</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1156,16 +1156,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex3000 2ohms +controle Jfa K1200 Vermelho</t>
+          <t>Fonte Carregador Bateria Jfa 120a Bivolt Até 6000 W Rms Som</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>995</v>
+        <v>819</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1184,14 +1184,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168531669-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6793aae3-8e66-4571-a8c1-3045ec7284ee</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165411255-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1238fe87-15d5-4060-ba8e-913084b45eef</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1201,16 +1201,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Azul</t>
+          <t>Carregador Bateria Fonte Automotivo 120a Jfa Storm Bob 120</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>995</v>
+        <v>619</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1229,14 +1229,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168484625-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6793aae3-8e66-4571-a8c1-3045ec7284ee</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3173835663-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1238fe87-15d5-4060-ba8e-913084b45eef</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1274,14 +1274,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168528937-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6793aae3-8e66-4571-a8c1-3045ec7284ee</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168528937-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1238fe87-15d5-4060-ba8e-913084b45eef</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1291,18 +1291,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Controle Distancia Jfa Red Line Pioneer Multimidia Original</t>
+          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>119</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
+        <v>995</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1315,14 +1319,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1363431327-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6793aae3-8e66-4571-a8c1-3045ec7284ee</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168484625-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1238fe87-15d5-4060-ba8e-913084b45eef</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1332,22 +1336,18 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Carregador Bateria Fonte Automotivo 120a Jfa Storm Bob 120</t>
+          <t>Controle Distancia Jfa Red Line Pioneer Multimidia Original</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>619</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1360,14 +1360,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173835663-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D67155570-b29d-4ae9-acd3-c80e96305cd4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1363431327-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5bd33d4e-e12e-47ab-9f82-89b9e5e119a4</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1405,14 +1405,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2100861882-controle-longa-distncia-jfa-k1200-1200-metros-vermelho-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4d072285-2aff-4b98-8735-33801a827c71</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2100861882-controle-longa-distncia-jfa-k1200-1200-metros-vermelho-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8657b0a0-5134-4696-a3e1-580bfd491736</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1422,16 +1422,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 1200 Metros Azul</t>
+          <t>Fonte Carregador Bateria Jfa 200a Bivolt Voltímetro Digital</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>115</v>
+        <v>989</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1445,19 +1445,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2100921907-controle-longa-distncia-jfa-k1200-1200-metros-azul-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4d072285-2aff-4b98-8735-33801a827c71</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1114849911-fonte-carregador-bateria-jfa-200a-bivolt-voltimetro-digital-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8657b0a0-5134-4696-a3e1-580bfd491736</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1467,16 +1467,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 200a Bivolt Voltímetro Digital</t>
+          <t>Controle Longa Distância Jfa K1200 1200 Metros Azul</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>989</v>
+        <v>115</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1490,19 +1490,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1114849911-fonte-carregador-bateria-jfa-200a-bivolt-voltimetro-digital-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4d072285-2aff-4b98-8735-33801a827c71</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2100921907-controle-longa-distncia-jfa-k1200-1200-metros-azul-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8657b0a0-5134-4696-a3e1-580bfd491736</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1536,14 +1536,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2158425171-filtro-anti-ruido-jfa-eletrnicos-rca-alta-definico-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4d072285-2aff-4b98-8735-33801a827c71</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2158425171-filtro-anti-ruido-jfa-eletrnicos-rca-alta-definico-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8657b0a0-5134-4696-a3e1-580bfd491736</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1581,14 +1581,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057681370-fonte-automotiva-jfa-120a-slim-bivolt-voltimetro-digital-som-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D018d89db-80e0-46cc-98dd-30c479e06e70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057681370-fonte-automotiva-jfa-120a-slim-bivolt-voltimetro-digital-som-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d416dcc-bbe9-4b00-a682-f54de59a9768</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
+          <t>Jfa K600 Controle Longa Distancia Completo + Barato Brasil</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1621,19 +1621,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1128622964-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D018d89db-80e0-46cc-98dd-30c479e06e70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1128625837-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d416dcc-bbe9-4b00-a682-f54de59a9768</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Jfa K600 Controle Longa Distancia Completo + Barato Brasil</t>
+          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1666,19 +1666,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1128625837-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D018d89db-80e0-46cc-98dd-30c479e06e70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1128622964-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d416dcc-bbe9-4b00-a682-f54de59a9768</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1716,14 +1716,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165421855-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D018d89db-80e0-46cc-98dd-30c479e06e70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165421855-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d416dcc-bbe9-4b00-a682-f54de59a9768</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1761,14 +1761,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168447918-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D018d89db-80e0-46cc-98dd-30c479e06e70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168447918-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d416dcc-bbe9-4b00-a682-f54de59a9768</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Preto C/ Verde Longa Distancia Universal</t>
+          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>99</v>
+        <v>925</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1801,19 +1801,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173851514-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D018d89db-80e0-46cc-98dd-30c479e06e70</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168528944-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d416dcc-bbe9-4b00-a682-f54de59a9768</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1823,16 +1823,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 40a Storm Som Automotivo</t>
+          <t>Controle Jfa K1200 Preto C/ Verde Longa Distancia Universal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>499</v>
+        <v>99</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1851,14 +1851,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2778581381-fonte-carregador-de-bateria-jfa-40a-storm-som-automotivo-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3a8d8e38-8689-4c85-bc2e-a1488794314a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3173851514-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d416dcc-bbe9-4b00-a682-f54de59a9768</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Preto</t>
+          <t>Kit Modulo Stetsom Ex3000 2ohms +controle Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1896,14 +1896,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168528944-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3a8d8e38-8689-4c85-bc2e-a1488794314a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168566914-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d416dcc-bbe9-4b00-a682-f54de59a9768</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1913,16 +1913,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex3000 2ohms +controle Jfa K1200 Vermelho</t>
+          <t>Fonte Automotiva Carregador De Bateria Jfa Caixa Bob 200a</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>925</v>
+        <v>859</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1936,19 +1936,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168566914-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3a8d8e38-8689-4c85-bc2e-a1488794314a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2733308219-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D765692f9-2bc9-46e0-b40d-d70bef643d0a</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1958,16 +1958,16 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador De Bateria Jfa Caixa Bob 200a</t>
+          <t>Fonte Carregador De Bateria Jfa 40a Storm</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>859</v>
+        <v>465</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1981,19 +1981,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2733308219-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3a8d8e38-8689-4c85-bc2e-a1488794314a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2778611516-fonte-carregador-de-bateria-jfa-40a-storm-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D765692f9-2bc9-46e0-b40d-d70bef643d0a</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 40a Storm</t>
+          <t>Fonte Carregador De Bateria Jfa 40a Storm Som Automotivo</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2026,19 +2026,19 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2778611516-fonte-carregador-de-bateria-jfa-40a-storm-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3a8d8e38-8689-4c85-bc2e-a1488794314a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2778581381-fonte-carregador-de-bateria-jfa-40a-storm-som-automotivo-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D765692f9-2bc9-46e0-b40d-d70bef643d0a</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2048,16 +2048,16 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático  Preto</t>
+          <t>Fonte Carregador Bateria 70a Bivolt Jfa Toca Ate 3500 Rms</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>466.39</v>
+        <v>619</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2071,19 +2071,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438273144-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0184aff0-6739-4283-b19a-b3966ba28274</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165401956-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84348e50-16b6-4562-855f-7b8563f5ed4f</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2093,16 +2093,16 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria 70a Bivolt Jfa Toca Ate 3500 Rms</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático  Preto</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>619</v>
+        <v>466.39</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2116,19 +2116,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165401956-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0184aff0-6739-4283-b19a-b3966ba28274</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438273144-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D765692f9-2bc9-46e0-b40d-d70bef643d0a</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2166,14 +2166,14 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057679352-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c192ed9-59cb-4ca1-98f9-3838fb5a5bda</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057679352-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c339b5b-872b-4560-a2bc-4033f3eed0dd</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2207,14 +2207,14 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1934577466-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c192ed9-59cb-4ca1-98f9-3838fb5a5bda</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1934577466-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0aca428e-7edd-4c12-bc18-0264ef2c7fd2</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2248,14 +2248,14 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064724681-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D87128842-211b-4b96-8738-329614f6e54b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1064724681-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D54a7d498-a970-42bd-8998-c927b3d191fc</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2293,14 +2293,14 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165400879-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D87128842-211b-4b96-8738-329614f6e54b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165400879-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D54a7d498-a970-42bd-8998-c927b3d191fc</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2334,14 +2334,14 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1363426956-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D87128842-211b-4b96-8738-329614f6e54b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1363426956-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09b7b947-50ae-486d-bcec-c33ee58be7a7</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2379,14 +2379,14 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057619899-fonte-automotiva-jfa-60a-slim-bivolt-voltimetro-digital-som-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D87128842-211b-4b96-8738-329614f6e54b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057619899-fonte-automotiva-jfa-60a-slim-bivolt-voltimetro-digital-som-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09b7b947-50ae-486d-bcec-c33ee58be7a7</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2424,14 +2424,14 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165407740-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D87128842-211b-4b96-8738-329614f6e54b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165407740-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09b7b947-50ae-486d-bcec-c33ee58be7a7</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
@@ -2460,19 +2460,19 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188300004-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D87128842-211b-4b96-8738-329614f6e54b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1188302615-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09b7b947-50ae-486d-bcec-c33ee58be7a7</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2491,7 +2491,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
@@ -2501,19 +2501,19 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188302615-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D87128842-211b-4b96-8738-329614f6e54b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1188300004-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09b7b947-50ae-486d-bcec-c33ee58be7a7</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2523,22 +2523,18 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
+          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>78</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2551,14 +2547,14 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188343903-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D87128842-211b-4b96-8738-329614f6e54b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1064720687-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09b7b947-50ae-486d-bcec-c33ee58be7a7</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2568,18 +2564,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
+          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42</v>
-      </c>
-      <c r="F49" t="inlineStr"/>
+        <v>78</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2592,14 +2592,14 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064720687-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D87128842-211b-4b96-8738-329614f6e54b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1188343903-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09b7b947-50ae-486d-bcec-c33ee58be7a7</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2637,14 +2637,14 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165419289-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd0e9ec3a-f88b-47bd-9bd6-423151a77e0a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165419289-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D58f259d3-cc1a-4632-8782-9f8abe922640</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188317374-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd0e9ec3a-f88b-47bd-9bd6-423151a77e0a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1188317374-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D58f259d3-cc1a-4632-8782-9f8abe922640</t>
         </is>
       </c>
     </row>

--- a/dados/obvius_acoustic_box.xlsx
+++ b/dados/obvius_acoustic_box.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,20 +493,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>674.6799999999999</v>
+        <v>498.19</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:331698272#searchVariation=MLB21392652&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=043345d3-9301-47ba-a604-53684c9ec3af</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:331698272#wid=MLB3712351706&amp;sid=search&amp;searchVariation=MLB21320712&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=ce3ee07c-da33-44d9-9e74-3fda41b105b8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,22 +538,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>498.19</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>NA</t>
@@ -566,14 +562,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:331698272#searchVariation=MLB21320712&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=043345d3-9301-47ba-a604-53684c9ec3af</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:331698272#wid=MLB3924361210&amp;sid=search&amp;searchVariation=MLB25707531&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=ce3ee07c-da33-44d9-9e74-3fda41b105b8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,16 +579,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>619</v>
+        <v>989</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -611,14 +607,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:331698272#searchVariation=MLB21455208&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=043345d3-9301-47ba-a604-53684c9ec3af</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:331698272#wid=MLB3859175860&amp;sid=search&amp;searchVariation=MLB21348561&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=ce3ee07c-da33-44d9-9e74-3fda41b105b8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,16 +624,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>736</v>
+        <v>694.92</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -656,14 +652,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:331698272#searchVariation=MLB23998473&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=630155ef-6202-4cbe-9132-ebfbd413345f</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:331698272#wid=MLB3471858427&amp;sid=search&amp;searchVariation=MLB21392652&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=ce3ee07c-da33-44d9-9e74-3fda41b105b8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,16 +669,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>989</v>
+        <v>736</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -701,14 +697,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:331698272#searchVariation=MLB21348561&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=043345d3-9301-47ba-a604-53684c9ec3af</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:331698272#wid=MLB4754258070&amp;sid=search&amp;searchVariation=MLB23998473&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=ce3ee07c-da33-44d9-9e74-3fda41b105b8</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,16 +714,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jfa K1200 Preto Cordão + Central + Controle Longa Distancia</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>115</v>
+        <v>619</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -746,14 +742,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-k1200-preto-cordo-central-controle-longa-distancia/p/MLB35276166?pdp_filters=seller_id:331698272#searchVariation=MLB35276166&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=630155ef-6202-4cbe-9132-ebfbd413345f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:331698272#wid=MLB4350553522&amp;sid=search&amp;searchVariation=MLB21455208&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=ce3ee07c-da33-44d9-9e74-3fda41b105b8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -787,14 +783,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064718153-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D41627901-9b19-4990-ae20-ed79387323fc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1064718153-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d77cd5a-a454-470d-8f4f-5c22cf535ad3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -804,18 +800,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Jfa K1200 Preto Cordão + Central + Controle Longa Distancia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>37</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>NA</t>
@@ -828,14 +828,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:331698272#searchVariation=MLB25707531&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=043345d3-9301-47ba-a604-53684c9ec3af</t>
+          <t>https://www.mercadolivre.com.br/jfa-k1200-preto-cordo-central-controle-longa-distancia/p/MLB35276166?pdp_filters=seller_id:331698272#wid=MLB4751327798&amp;sid=search&amp;searchVariation=MLB35276166&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=7991144c-6373-48d7-a163-ae411d5a185a</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -845,22 +845,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm Modelo Com 70 Amperes Para Carro</t>
+          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>619</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>NA</t>
@@ -868,19 +864,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:331698272#searchVariation=MLB27622275&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=630155ef-6202-4cbe-9132-ebfbd413345f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1064717829-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b96c97e-fa6d-441b-b79e-8b062a36a10a</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -890,16 +886,16 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>Fonte Jfa Storm Modelo Com 70 Amperes Para Carro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>114</v>
+        <v>619</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -918,14 +914,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:331698272#searchVariation=MLB28557249&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=41627901-9b19-4990-ae20-ed79387323fc</t>
+          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:331698272#wid=MLB3561841655&amp;sid=search&amp;searchVariation=MLB27622275&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=7991144c-6373-48d7-a163-ae411d5a185a</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -935,18 +931,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>44</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>NA</t>
@@ -954,19 +954,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064717829-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd83ab271-aa36-4176-aab5-15415df80deb</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:331698272#wid=MLB3637156467&amp;sid=search&amp;searchVariation=MLB28557249&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=9d77cd5a-a454-470d-8f4f-5c22cf535ad3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1004,14 +1004,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3644519247-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D934e9323-f1ba-4237-b5af-3db1f1441e22</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3644519247-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De6f31805-51c3-41a7-b5c5-6883bd204cad</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1021,16 +1021,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa 70a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>814.42</v>
+        <v>619</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1049,14 +1049,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438324204-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D934e9323-f1ba-4237-b5af-3db1f1441e22</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057647339-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9b96c97e-fa6d-441b-b79e-8b062a36a10a</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1066,16 +1066,16 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 70a Slim Bivolt Voltímetro Digital Som</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>619</v>
+        <v>814.42</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1094,14 +1094,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057647339-fonte-automotiva-jfa-70a-slim-bivolt-voltimetro-digital-som-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1238fe87-15d5-4060-ba8e-913084b45eef</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438324204-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De6f31805-51c3-41a7-b5c5-6883bd204cad</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex3000 2ohms +controle Jfa K1200 Vermelho</t>
+          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1139,14 +1139,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168531669-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1238fe87-15d5-4060-ba8e-913084b45eef</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168484625-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De6f31805-51c3-41a7-b5c5-6883bd204cad</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1156,16 +1156,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 120a Bivolt Até 6000 W Rms Som</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>819</v>
+        <v>457.29</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1184,14 +1184,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165411255-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1238fe87-15d5-4060-ba8e-913084b45eef</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438322022-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De6f31805-51c3-41a7-b5c5-6883bd204cad</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1201,16 +1201,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Carregador Bateria Fonte Automotivo 120a Jfa Storm Bob 120</t>
+          <t>Kit Modulo Stetsom Ex3000 2ohms +controle Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>619</v>
+        <v>995</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1229,14 +1229,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173835663-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1238fe87-15d5-4060-ba8e-913084b45eef</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168531669-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df2b2c2e9-1e11-47a3-9ea9-170a2b2d13cd</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1246,16 +1246,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Preto</t>
+          <t>Carregador Bateria Fonte Automotivo 120a Jfa Storm Bob 120</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>995</v>
+        <v>619</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1274,14 +1274,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168528937-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1238fe87-15d5-4060-ba8e-913084b45eef</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3173835663-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df2b2c2e9-1e11-47a3-9ea9-170a2b2d13cd</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1291,16 +1291,16 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Azul</t>
+          <t>Fonte Carregador Bateria Jfa 120a Bivolt Até 6000 W Rms Som</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>995</v>
+        <v>819</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1319,14 +1319,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168484625-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1238fe87-15d5-4060-ba8e-913084b45eef</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165411255-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df2b2c2e9-1e11-47a3-9ea9-170a2b2d13cd</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1336,18 +1336,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Controle Distancia Jfa Red Line Pioneer Multimidia Original</t>
+          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>119</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
+        <v>995</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1360,14 +1364,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1363431327-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5bd33d4e-e12e-47ab-9f82-89b9e5e119a4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168528937-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df2b2c2e9-1e11-47a3-9ea9-170a2b2d13cd</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1377,16 +1381,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Controle Longa Distância Jfa K1200 1200 Metros Vermelho</t>
+          <t>Fonte Carregador Bateria 70a Bivolt Jfa Toca Ate 3500 Rms</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>115</v>
+        <v>619</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1400,19 +1404,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2100861882-controle-longa-distncia-jfa-k1200-1200-metros-vermelho-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8657b0a0-5134-4696-a3e1-580bfd491736</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165401956-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De02b8e7d-934c-4049-bd2d-737cf91e1e6f</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1422,16 +1426,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 200a Bivolt Voltímetro Digital</t>
+          <t>Controle Longa Distância Jfa K1200 1200 Metros Azul</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>989</v>
+        <v>115</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1445,19 +1449,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1114849911-fonte-carregador-bateria-jfa-200a-bivolt-voltimetro-digital-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8657b0a0-5134-4696-a3e1-580bfd491736</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2100921907-controle-longa-distncia-jfa-k1200-1200-metros-azul-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De02b8e7d-934c-4049-bd2d-737cf91e1e6f</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1467,7 +1471,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 1200 Metros Azul</t>
+          <t xml:space="preserve"> Controle Longa Distância Jfa K1200 1200 Metros Vermelho</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1495,14 +1499,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2100921907-controle-longa-distncia-jfa-k1200-1200-metros-azul-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8657b0a0-5134-4696-a3e1-580bfd491736</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2100861882-controle-longa-distncia-jfa-k1200-1200-metros-vermelho-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De02b8e7d-934c-4049-bd2d-737cf91e1e6f</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1512,7 +1516,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruido Jfa Eletrônicos Rca Alta Definição</t>
+          <t>Sequenciador Voltimetro Medidor Bateria Digital Jfa Vs5 Hi</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1521,7 +1525,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
@@ -1531,19 +1535,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2158425171-filtro-anti-ruido-jfa-eletrnicos-rca-alta-definico-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8657b0a0-5134-4696-a3e1-580bfd491736</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1934577466-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8969b35-59a8-4568-a7ef-146ae140dec3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1581,14 +1585,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057681370-fonte-automotiva-jfa-120a-slim-bivolt-voltimetro-digital-som-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d416dcc-bbe9-4b00-a682-f54de59a9768</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057681370-fonte-automotiva-jfa-120a-slim-bivolt-voltimetro-digital-som-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8969b35-59a8-4568-a7ef-146ae140dec3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1598,16 +1602,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Jfa K600 Controle Longa Distancia Completo + Barato Brasil</t>
+          <t>Fonte Carregador Bateria Jfa 200a Bivolt Voltímetro Digital</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>78</v>
+        <v>989</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1626,14 +1630,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1128625837-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d416dcc-bbe9-4b00-a682-f54de59a9768</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1114849911-fonte-carregador-bateria-jfa-200a-bivolt-voltimetro-digital-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8969b35-59a8-4568-a7ef-146ae140dec3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1643,22 +1647,18 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
+          <t>Filtro Anti Ruido Jfa Eletrônicos Rca Alta Definição</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>78</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1671,14 +1671,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1128622964-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d416dcc-bbe9-4b00-a682-f54de59a9768</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2158425171-filtro-anti-ruido-jfa-eletrnicos-rca-alta-definico-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8969b35-59a8-4568-a7ef-146ae140dec3</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1688,16 +1688,16 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria 70a Bivolt Jfa Toca Ate 3500 Rms</t>
+          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>619</v>
+        <v>78</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1711,19 +1711,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165421855-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d416dcc-bbe9-4b00-a682-f54de59a9768</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1128622964-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8969b35-59a8-4568-a7ef-146ae140dec3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1761,14 +1761,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168447918-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d416dcc-bbe9-4b00-a682-f54de59a9768</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168447918-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-azul-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd0e6df63-f017-43d1-82c4-0beef4a79881</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Preto</t>
+          <t>Kit Modulo Stetsom Ex3000 2ohms +controle Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1806,14 +1806,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168528944-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d416dcc-bbe9-4b00-a682-f54de59a9768</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168566914-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd0e6df63-f017-43d1-82c4-0beef4a79881</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1823,16 +1823,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Preto C/ Verde Longa Distancia Universal</t>
+          <t>Fonte Carregador Bateria 70a Bivolt Jfa Toca Ate 3500 Rms</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>99</v>
+        <v>619</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1846,19 +1846,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173851514-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d416dcc-bbe9-4b00-a682-f54de59a9768</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165421855-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd0e6df63-f017-43d1-82c4-0beef4a79881</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1868,16 +1868,16 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Kit Modulo Stetsom Ex3000 2ohms +controle Jfa K1200 Vermelho</t>
+          <t>Jfa K600 Controle Longa Distancia Completo + Barato Brasil</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>925</v>
+        <v>78</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1896,14 +1896,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2168566914-kit-modulo-stetsom-ex3000-2ohms-controle-jfa-k1200-vermelho-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d416dcc-bbe9-4b00-a682-f54de59a9768</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1128625837-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd0e6df63-f017-43d1-82c4-0beef4a79881</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1941,14 +1941,14 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2733308219-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D765692f9-2bc9-46e0-b40d-d70bef643d0a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2733308219-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd0e6df63-f017-43d1-82c4-0beef4a79881</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1958,16 +1958,16 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 40a Storm</t>
+          <t>Controle Jfa K1200 Preto C/ Verde Longa Distancia Universal</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>465</v>
+        <v>99</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1981,19 +1981,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2778611516-fonte-carregador-de-bateria-jfa-40a-storm-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D765692f9-2bc9-46e0-b40d-d70bef643d0a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3173851514-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd0e6df63-f017-43d1-82c4-0beef4a79881</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2003,16 +2003,16 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 40a Storm Som Automotivo</t>
+          <t>Kit Modulo Stetsom Ex 3000 2ohms + Controle Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>499</v>
+        <v>925</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2026,19 +2026,19 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2778581381-fonte-carregador-de-bateria-jfa-40a-storm-som-automotivo-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D765692f9-2bc9-46e0-b40d-d70bef643d0a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2168528944-kit-modulo-stetsom-ex-3000-2ohms-controle-jfa-k1200-preto-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd0e6df63-f017-43d1-82c4-0beef4a79881</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2048,16 +2048,16 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria 70a Bivolt Jfa Toca Ate 3500 Rms</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático  Preto</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>619</v>
+        <v>466.39</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2071,19 +2071,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165401956-fonte-carregador-bateria-70a-bivolt-jfa-toca-ate-3500-rms-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84348e50-16b6-4562-855f-7b8563f5ed4f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438273144-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84aa5519-b622-40c2-9dc7-f976466f8e04</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2093,22 +2093,18 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático  Preto</t>
+          <t>Controle Distancia Jfa Red Line Pioneer Multimidia Original</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>466.39</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2121,14 +2117,14 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438273144-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D765692f9-2bc9-46e0-b40d-d70bef643d0a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1363431327-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfb156d33-09b9-4b8f-9c7b-c6bfe834debc</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2166,14 +2162,14 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057679352-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2c339b5b-872b-4560-a2bc-4033f3eed0dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057679352-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da0095be4-ba4f-495c-843c-efa5adca6774</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2183,7 +2179,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sequenciador Voltimetro Medidor Bateria Digital Jfa Vs5 Hi</t>
+          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2192,7 +2188,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>73.26000000000001</v>
+        <v>37</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
@@ -2202,19 +2198,19 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1934577466-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0aca428e-7edd-4c12-bc18-0264ef2c7fd2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1064724681-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c4f0d3a-f2ff-4d73-a493-d9525d78ddaf</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2224,18 +2220,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
+          <t>Fonte Carregador Bateria Jfa 120a Bivolt Até 6000 W Rms Som</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>37</v>
-      </c>
-      <c r="F41" t="inlineStr"/>
+        <v>819</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2243,19 +2243,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064724681-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D54a7d498-a970-42bd-8998-c927b3d191fc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165400879-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c4f0d3a-f2ff-4d73-a493-d9525d78ddaf</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2265,22 +2265,18 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 120a Bivolt Até 6000 W Rms Som</t>
+          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>819</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2293,14 +2289,14 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165400879-fonte-carregador-bateria-jfa-120a-bivolt-ate-6000-w-rms-som-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D54a7d498-a970-42bd-8998-c927b3d191fc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1188302615-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c4f0d3a-f2ff-4d73-a493-d9525d78ddaf</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2310,7 +2306,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Controle Distancia Jfa Red Line Pioneer Multimidia Original</t>
+          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2319,7 +2315,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>112.86</v>
+        <v>42</v>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
@@ -2334,14 +2330,14 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1363426956-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09b7b947-50ae-486d-bcec-c33ee58be7a7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1064720687-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c4f0d3a-f2ff-4d73-a493-d9525d78ddaf</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2351,22 +2347,18 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 60a Slim Bivolt Voltímetro Digital Som</t>
+          <t>Controle Distancia Jfa Red Line Pioneer Multimidia Original</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>498.19</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2379,14 +2371,14 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057619899-fonte-automotiva-jfa-60a-slim-bivolt-voltimetro-digital-som-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09b7b947-50ae-486d-bcec-c33ee58be7a7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1363426956-controle-distancia-jfa-red-line-pioneer-multimidia-original-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c4f0d3a-f2ff-4d73-a493-d9525d78ddaf</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2424,14 +2416,14 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165407740-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09b7b947-50ae-486d-bcec-c33ee58be7a7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1188343903-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c4f0d3a-f2ff-4d73-a493-d9525d78ddaf</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2441,18 +2433,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
+          <t>Fonte Automotiva Jfa 60a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>42</v>
-      </c>
-      <c r="F46" t="inlineStr"/>
+        <v>498.19</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2465,14 +2461,14 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188302615-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09b7b947-50ae-486d-bcec-c33ee58be7a7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057619899-fonte-automotiva-jfa-60a-slim-bivolt-voltimetro-digital-som-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c4f0d3a-f2ff-4d73-a493-d9525d78ddaf</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2482,18 +2478,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
+          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>44</v>
-      </c>
-      <c r="F47" t="inlineStr"/>
+        <v>78</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2501,19 +2501,19 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188300004-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09b7b947-50ae-486d-bcec-c33ee58be7a7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165407740-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D23dc2ea8-d0a5-45e9-bab6-a9d8760e2af1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2547,14 +2547,14 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1064720687-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09b7b947-50ae-486d-bcec-c33ee58be7a7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1188317374-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D23dc2ea8-d0a5-45e9-bab6-a9d8760e2af1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2564,22 +2564,18 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
+          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>78</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2587,19 +2583,19 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188343903-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09b7b947-50ae-486d-bcec-c33ee58be7a7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1188300004-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D23dc2ea8-d0a5-45e9-bab6-a9d8760e2af1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2637,48 +2633,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1165419289-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D58f259d3-cc1a-4632-8782-9f8abe922640</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>obvius_acoustic_box</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd Radio Som Original</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>42</v>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1188317374-conversor-fio-p-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D58f259d3-cc1a-4632-8782-9f8abe922640</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1165419289-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D23dc2ea8-d0a5-45e9-bab6-a9d8760e2af1</t>
         </is>
       </c>
     </row>
